--- a/biology/Botanique/Antonio_Targioni_Tozzetti/Antonio_Targioni_Tozzetti.xlsx
+++ b/biology/Botanique/Antonio_Targioni_Tozzetti/Antonio_Targioni_Tozzetti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Targioni Tozzetti, né le 11 septembre 1785 à Florence et mort le 18 décembre 1856 dans la même ville, est un médecin et un botaniste italien, , membre de l'Académie des sciences de Turin et de l'Accademia della Crusca..
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Antonio Targioni Tozzetti est le neveu du naturaliste Giovanni Targioni Tozzetti (1712-1783). Il enseigne la botanique, la médecine et la chimie à l'hôpital Santa Maria Nuova. Il fait paraître en 1825, Raccolta di fiori, frutti ed agrumi piu ricercati per l'adornamento dei giardini disegnati al naturale da vari artisti.
 Il meurt le 18 décembre 1856 à l'âge de 71 ans, est est inhumé dans la basilique Santa Croce de Florence
@@ -543,7 +557,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Cenni storici sulla introduzione di varie piante nell'agricoltura ed orticoltura toscana. Firenze, Tipografia Galileiana. 325 p., 1853
 OpenLibrary
